--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1731,11 +1731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3818,21 +3818,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
@@ -3840,7 +3840,7 @@
     <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -3884,18 +3884,18 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>40</v>
@@ -3912,18 +3912,18 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>39</v>
@@ -3940,18 +3940,18 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>41</v>
@@ -3968,18 +3968,18 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>42</v>
@@ -3995,20 +3995,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>43</v>
@@ -4024,20 +4024,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -4054,18 +4054,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -4082,18 +4082,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>43</v>
@@ -4110,18 +4110,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
@@ -4138,18 +4138,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>43</v>
@@ -4166,18 +4166,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>43</v>
@@ -4194,18 +4194,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>43</v>
@@ -4222,18 +4222,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>43</v>
@@ -4250,18 +4250,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>43</v>
@@ -4285,11 +4285,11 @@
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>43</v>
@@ -4315,11 +4315,11 @@
       <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>43</v>
@@ -4343,11 +4343,11 @@
       <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>43</v>
@@ -4371,11 +4371,11 @@
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>43</v>
@@ -4401,11 +4401,11 @@
       <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>43</v>
@@ -4429,11 +4429,11 @@
       <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>44</v>
@@ -4457,11 +4457,11 @@
       <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>44</v>
@@ -4485,11 +4485,11 @@
       <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>44</v>
@@ -4515,11 +4515,11 @@
       <c r="B25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>44</v>
@@ -4543,11 +4543,11 @@
       <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>45</v>
@@ -4568,11 +4568,11 @@
       <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>45</v>
@@ -4596,11 +4596,11 @@
       <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
@@ -4743,28 +4743,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:H25"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -4804,18 +4804,18 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>40</v>
@@ -4830,20 +4830,19 @@
         <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>39</v>
@@ -4858,20 +4857,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>41</v>
@@ -4887,18 +4885,18 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>42</v>
@@ -4914,18 +4912,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>43</v>
@@ -4941,18 +4939,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -4968,18 +4966,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -4995,18 +4993,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>43</v>
@@ -5022,18 +5020,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
@@ -5049,18 +5047,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>43</v>
@@ -5076,18 +5074,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>43</v>
@@ -5103,18 +5101,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>43</v>
@@ -5130,18 +5128,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>43</v>
@@ -5157,18 +5155,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>43</v>
@@ -5191,11 +5189,11 @@
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>43</v>
@@ -5218,11 +5216,11 @@
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>43</v>
@@ -5245,11 +5243,11 @@
       <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>43</v>
@@ -5272,11 +5270,11 @@
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -5299,11 +5297,11 @@
       <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -5326,11 +5324,11 @@
       <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>44</v>
@@ -5353,11 +5351,11 @@
       <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>45</v>
@@ -5380,11 +5378,11 @@
       <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>45</v>
@@ -5407,11 +5405,11 @@
       <c r="B25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>45</v>
@@ -5519,21 +5517,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
@@ -5541,7 +5539,7 @@
     <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5562,7 +5560,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -5585,18 +5583,18 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>40</v>
@@ -5612,20 +5610,20 @@
         <f t="shared" ref="I3:I25" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>39</v>
@@ -5641,20 +5639,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>41</v>
@@ -5671,18 +5669,18 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>42</v>
@@ -5699,18 +5697,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>43</v>
@@ -5727,18 +5725,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -5755,18 +5753,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -5783,18 +5781,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>43</v>
@@ -5811,18 +5809,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
@@ -5839,18 +5837,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>43</v>
@@ -5867,18 +5865,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>43</v>
@@ -5895,18 +5893,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>43</v>
@@ -5923,18 +5921,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>43</v>
@@ -5951,18 +5949,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>43</v>
@@ -5986,11 +5984,11 @@
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>43</v>
@@ -6014,11 +6012,11 @@
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>43</v>
@@ -6042,11 +6040,11 @@
       <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>43</v>
@@ -6070,11 +6068,11 @@
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -6098,11 +6096,11 @@
       <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -6126,11 +6124,11 @@
       <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>44</v>
@@ -6154,11 +6152,11 @@
       <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>44</v>
@@ -6184,11 +6182,11 @@
       <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>45</v>
@@ -6212,11 +6210,11 @@
       <c r="B25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>45</v>
@@ -6240,11 +6238,11 @@
       <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>45</v>
@@ -6370,28 +6368,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:H25"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6411,7 +6409,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -6431,18 +6429,18 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>40</v>
@@ -6457,20 +6455,19 @@
         <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>39</v>
@@ -6486,20 +6483,19 @@
         <v/>
       </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>41</v>
@@ -6515,18 +6511,18 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>42</v>
@@ -6542,18 +6538,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>43</v>
@@ -6569,18 +6565,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -6596,18 +6592,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -6623,18 +6619,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>43</v>
@@ -6650,18 +6646,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
@@ -6677,18 +6673,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>43</v>
@@ -6704,18 +6700,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>43</v>
@@ -6731,18 +6727,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>43</v>
@@ -6758,18 +6754,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>43</v>
@@ -6785,18 +6781,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>43</v>
@@ -6819,11 +6815,11 @@
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>43</v>
@@ -6846,11 +6842,11 @@
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>43</v>
@@ -6873,11 +6869,11 @@
       <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>43</v>
@@ -6900,11 +6896,11 @@
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -6927,11 +6923,11 @@
       <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -6954,11 +6950,11 @@
       <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>44</v>
@@ -6981,11 +6977,11 @@
       <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>45</v>
@@ -7008,11 +7004,11 @@
       <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>45</v>
@@ -7035,11 +7031,11 @@
       <c r="B25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>45</v>
@@ -7150,21 +7146,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
@@ -7172,7 +7168,7 @@
     <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -7193,7 +7189,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -7216,18 +7212,18 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>40</v>
@@ -7243,20 +7239,20 @@
         <f t="shared" ref="I3:I27" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>39</v>
@@ -7272,21 +7268,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>41</v>
@@ -7303,18 +7298,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>42</v>
@@ -7331,18 +7326,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>43</v>
@@ -7359,18 +7354,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -7387,18 +7382,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -7415,18 +7410,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>43</v>
@@ -7443,18 +7438,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
@@ -7471,18 +7466,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>43</v>
@@ -7499,18 +7494,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>43</v>
@@ -7527,18 +7522,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>43</v>
@@ -7555,18 +7550,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>43</v>
@@ -7583,18 +7578,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>43</v>
@@ -7618,11 +7613,11 @@
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>43</v>
@@ -7646,11 +7641,11 @@
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>43</v>
@@ -7674,11 +7669,11 @@
       <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>43</v>
@@ -7702,11 +7697,11 @@
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>44</v>
@@ -7730,11 +7725,11 @@
       <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>44</v>
@@ -7758,11 +7753,11 @@
       <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>44</v>
@@ -7786,11 +7781,11 @@
       <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>45</v>
@@ -7814,11 +7809,11 @@
       <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>45</v>
@@ -7841,11 +7836,11 @@
       <c r="B25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>45</v>
@@ -7869,11 +7864,11 @@
       <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>45</v>
@@ -7899,11 +7894,11 @@
       <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>45</v>
@@ -7923,11 +7918,11 @@
       <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCB834-2CDB-486F-A118-5A820C3C26D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="138">
   <si>
     <t>Year</t>
   </si>
@@ -756,13 +757,40 @@
   </si>
   <si>
     <t>Obv: Red stars</t>
+  </si>
+  <si>
+    <t>45.769</t>
+  </si>
+  <si>
+    <t>43.620</t>
+  </si>
+  <si>
+    <t>30.028.269</t>
+  </si>
+  <si>
+    <t>10.034.120</t>
+  </si>
+  <si>
+    <t>15.038.269</t>
+  </si>
+  <si>
+    <t>55.769</t>
+  </si>
+  <si>
+    <t>51.620</t>
+  </si>
+  <si>
+    <t>53.769</t>
+  </si>
+  <si>
+    <t>63.620</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -818,6 +846,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1055,9 +1087,193 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1451,16 +1667,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1728,28 +1944,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1984,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -1785,7 +2001,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -1809,7 +2025,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -1833,7 +2049,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -1857,7 +2073,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -1877,12 +2093,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ref="G6:G24" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G6:G26" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -1907,7 +2123,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -1931,7 +2147,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -1955,7 +2171,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -1979,7 +2195,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -2003,7 +2219,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -2027,7 +2243,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -2051,7 +2267,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -2075,7 +2291,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -2099,7 +2315,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -2123,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -2147,7 +2363,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -2171,7 +2387,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -2195,7 +2411,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -2219,7 +2435,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -2243,7 +2459,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -2267,7 +2483,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -2291,7 +2507,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -2315,7 +2531,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -2328,9 +2544,40 @@
       <c r="D25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2338,12 +2585,47 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F19 F21">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19 F21">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22 F24">
+    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2355,12 +2637,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2372,29 +2654,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2406,12 +2671,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2430,28 +2695,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:G25"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="A25:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2735,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -2487,7 +2752,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -2507,12 +2772,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G26" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -2537,7 +2802,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -2561,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -2585,7 +2850,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -2609,7 +2874,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -2633,7 +2898,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -2657,7 +2922,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -2681,7 +2946,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -2705,7 +2970,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -2729,7 +2994,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -2753,7 +3018,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -2777,7 +3042,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -2801,7 +3066,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -2825,7 +3090,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -2849,7 +3114,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -2873,7 +3138,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -2897,7 +3162,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -2921,7 +3186,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -2945,7 +3210,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -2969,7 +3234,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -2993,7 +3258,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -3017,7 +3282,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -3030,9 +3295,40 @@
       <c r="D25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3041,11 +3337,45 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F19 F21">
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19 F21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22 F24">
+    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3057,12 +3387,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3074,29 +3404,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3108,12 +3421,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3132,28 +3445,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:G25"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3485,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -3189,7 +3502,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -3209,12 +3522,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G26" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -3239,7 +3552,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -3263,7 +3576,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -3287,7 +3600,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -3311,7 +3624,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -3335,7 +3648,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -3359,7 +3672,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -3383,7 +3696,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -3407,7 +3720,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -3431,7 +3744,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -3455,7 +3768,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -3479,7 +3792,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -3503,7 +3816,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -3527,7 +3840,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -3551,7 +3864,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -3575,7 +3888,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -3599,7 +3912,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -3623,7 +3936,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -3647,7 +3960,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -3671,7 +3984,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -3695,7 +4008,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -3719,7 +4032,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -3732,9 +4045,40 @@
       <c r="D25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G26" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3743,12 +4087,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F19 F21:F22 F24">
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19 F21:F22 F24">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3760,12 +4104,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3777,11 +4121,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3793,12 +4154,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3817,30 +4178,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +4222,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -3884,7 +4245,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -3908,11 +4269,11 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I27" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I3:I29" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -3940,7 +4301,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -3968,7 +4329,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -3997,7 +4358,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -4026,7 +4387,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -4054,7 +4415,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -4082,7 +4443,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -4110,7 +4471,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -4138,7 +4499,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -4166,7 +4527,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -4194,7 +4555,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -4222,7 +4583,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -4250,7 +4611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -4278,7 +4639,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2012</v>
       </c>
@@ -4308,7 +4669,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2013</v>
       </c>
@@ -4336,7 +4697,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2014</v>
       </c>
@@ -4364,7 +4725,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2014</v>
       </c>
@@ -4394,7 +4755,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2015</v>
       </c>
@@ -4422,7 +4783,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2015</v>
       </c>
@@ -4450,7 +4811,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2016</v>
       </c>
@@ -4478,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2016</v>
       </c>
@@ -4508,7 +4869,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2017</v>
       </c>
@@ -4536,7 +4897,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>2017</v>
       </c>
@@ -4561,7 +4922,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2018</v>
       </c>
@@ -4589,7 +4950,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>2019</v>
       </c>
@@ -4606,9 +4967,44 @@
         <v>45</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
+      <c r="G28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4617,11 +5013,45 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4633,12 +5063,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4650,8 +5080,1719 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G19 G24 G21">
+    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G19 G24 G21">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I27" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" ref="I23" si="1">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H19 H21 H25">
+    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H19 H21 H25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4667,12 +6808,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4684,25 +6842,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4718,12 +6859,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4741,30 +6882,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4779,12 +6920,12 @@
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>12</v>
+      <c r="G1" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -4804,7 +6945,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -4821,17 +6962,17 @@
         <v>40</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H3:H26" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -4848,17 +6989,18 @@
         <v>39</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -4875,17 +7017,17 @@
         <v>41</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -4902,17 +7044,17 @@
         <v>42</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -4929,7 +7071,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4939,7 +7081,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -4956,7 +7098,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4966,7 +7108,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -4983,7 +7125,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4993,7 +7135,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -5020,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -5037,7 +7179,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5047,7 +7189,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -5074,7 +7216,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -5091,7 +7233,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5101,7 +7243,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -5128,7 +7270,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -5155,7 +7297,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -5182,7 +7324,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -5199,7 +7341,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5209,7 +7351,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -5236,7 +7378,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -5253,7 +7395,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5263,7 +7405,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -5290,7 +7432,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -5307,7 +7449,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5317,7 +7459,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -5334,7 +7476,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>57</v>
@@ -5344,7 +7486,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -5371,7 +7513,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -5387,18 +7529,18 @@
       <c r="E24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
+      <c r="F24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -5414,9 +7556,43 @@
       <c r="E25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5424,12 +7600,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G19 G24 G21">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:G19 G21">
+    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G19 G24 G21">
+  <conditionalFormatting sqref="G3:G19 G21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5441,12 +7634,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5458,17 +7668,1006 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I27" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" ref="I25" si="1">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" ref="I26" si="2">IF(OR(AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" ref="I28:I29" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H19 H21">
+    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H19 H21">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5480,7 +8679,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5492,12 +8696,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5515,2582 +8719,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I25" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" ref="I23" si="1">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H19 H21 H25">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H19 H21 H25">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G19 G21">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G19 G21">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I27" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" ref="I25" si="1">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="3" t="str">
-        <f t="shared" ref="I26" si="2">IF(OR(AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" ref="I28" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H19 H21">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H19 H21">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H27">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H27">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8100,14 +8730,14 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -8118,7 +8748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -8129,7 +8759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -8140,7 +8770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -8151,7 +8781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -8162,7 +8792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -8173,7 +8803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -8186,12 +8816,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCB834-2CDB-486F-A118-5A820C3C26D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BCE5C6-654F-4926-BF7C-6E8850B7A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="148">
   <si>
     <t>Year</t>
   </si>
@@ -784,13 +793,43 @@
   </si>
   <si>
     <t>63.620</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>26.000</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol -  Raven</t>
+  </si>
+  <si>
+    <t>43.621</t>
+  </si>
+  <si>
+    <t>1.050.000</t>
+  </si>
+  <si>
+    <t>2.050.000</t>
+  </si>
+  <si>
+    <t>25.000.000</t>
+  </si>
+  <si>
+    <t>3.050.000</t>
+  </si>
+  <si>
+    <t>20.500</t>
+  </si>
+  <si>
+    <t>33.500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -846,6 +885,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1089,7 +1134,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1097,191 +1142,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1643,6 +1503,351 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1674,9 +1879,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="89" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1945,27 +2150,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:G26"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +2189,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -2001,7 +2206,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -2025,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -2049,7 +2254,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -2073,7 +2278,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -2093,12 +2298,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ref="G6:G26" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G6:G29" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -2123,7 +2328,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -2147,7 +2352,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -2171,7 +2376,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -2195,7 +2400,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -2219,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -2243,7 +2448,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -2267,7 +2472,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -2291,7 +2496,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -2315,7 +2520,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -2339,7 +2544,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -2363,7 +2568,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -2387,7 +2592,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -2411,7 +2616,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -2435,7 +2640,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -2459,7 +2664,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -2483,7 +2688,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -2507,7 +2712,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -2531,7 +2736,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -2555,7 +2760,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>2020</v>
       </c>
@@ -2575,6 +2780,78 @@
         <v>57</v>
       </c>
       <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2587,11 +2864,45 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F19 F21">
-    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19 F21">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22 F24">
+    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F22">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="85" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2603,12 +2914,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2620,12 +2931,902 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G29" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F19 F21">
+    <cfRule type="containsText" dxfId="81" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F21">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22 F24">
+    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F22">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2637,12 +3838,851 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A27:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G27" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G29" si="2">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F19 F21:F22 F24">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F19 F21:F22 F24">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2654,12 +4694,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2671,12 +4728,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2694,29 +4751,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="A25:G26"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G30:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2726,16 +4785,18 @@
       <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -2744,15 +4805,21 @@
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -2762,22 +4829,25 @@
       <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G26" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I29" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -2787,22 +4857,25 @@
       <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -2812,21 +4885,25 @@
       <c r="C5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -2836,21 +4913,26 @@
       <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -2860,21 +4942,26 @@
       <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -2884,21 +4971,25 @@
       <c r="C8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -2908,21 +4999,25 @@
       <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -2932,21 +5027,25 @@
       <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -2956,21 +5055,25 @@
       <c r="C11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -2980,21 +5083,25 @@
       <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -3004,21 +5111,25 @@
       <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -3028,21 +5139,25 @@
       <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -3052,21 +5167,25 @@
       <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -3076,257 +5195,472 @@
       <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" ref="I17" si="1">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
         <v>2014</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" ref="I20" si="2">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
         <v>2015</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
         <v>2015</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
         <v>2016</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
         <v>2017</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="I30" s="3" t="str">
+        <f t="shared" ref="I30:I32" si="3">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3334,15 +5668,15 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F19 F21">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19 F21">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
+    <cfRule type="containsText" dxfId="70" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3353,13 +5687,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
-    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3370,12 +5704,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="64" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3387,12 +5789,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="63" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3404,12 +5806,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3421,12 +5845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3444,29 +5863,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I26"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="A27:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3476,16 +5896,17 @@
       <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -3494,15 +5915,18 @@
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -3512,22 +5936,24 @@
       <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G26" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -3537,22 +5963,24 @@
       <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -3562,21 +5990,24 @@
       <c r="C5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -3586,21 +6017,24 @@
       <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -3610,21 +6044,24 @@
       <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -3634,21 +6071,24 @@
       <c r="C8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -3658,21 +6098,24 @@
       <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -3682,21 +6125,24 @@
       <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -3706,21 +6152,24 @@
       <c r="C11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -3730,21 +6179,24 @@
       <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -3754,21 +6206,24 @@
       <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -3778,21 +6233,24 @@
       <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -3802,21 +6260,24 @@
       <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -3826,21 +6287,24 @@
       <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -3850,21 +6314,24 @@
       <c r="C17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -3874,21 +6341,24 @@
       <c r="C18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -3898,21 +6368,24 @@
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -3922,21 +6395,24 @@
       <c r="C20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -3946,21 +6422,24 @@
       <c r="C21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -3970,21 +6449,24 @@
       <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -3994,21 +6476,24 @@
       <c r="C23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -4018,21 +6503,24 @@
       <c r="C24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -4042,21 +6530,24 @@
       <c r="C25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" ref="G25:G26" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H29" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>2020</v>
       </c>
@@ -4066,16 +6557,100 @@
       <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="str">
+      <c r="F26" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4084,14 +6659,65 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F19 F21:F22 F24">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F19 F21:F22 F24">
+  <conditionalFormatting sqref="G3:G19 G24 G21">
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G19 G24 G21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4103,13 +6729,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4120,13 +6746,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4137,12 +6763,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4154,12 +6797,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4177,31 +6820,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J29"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4217,12 +6860,12 @@
       <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>9</v>
+      <c r="H1" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -4245,7 +6888,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -4263,17 +6906,18 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I29" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I3:I30" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -4291,17 +6935,18 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -4319,7 +6964,7 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -4329,7 +6974,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -4347,7 +6992,7 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -4356,9 +7001,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -4385,9 +7029,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -4405,7 +7048,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -4415,7 +7058,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -4443,7 +7086,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -4471,7 +7114,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -4499,7 +7142,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -4527,7 +7170,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -4555,7 +7198,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -4583,7 +7226,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -4611,7 +7254,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -4629,7 +7272,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -4639,9 +7282,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>37</v>
@@ -4655,26 +7298,24 @@
       <c r="E17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>57</v>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f t="shared" ref="I17" si="1">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>36</v>
@@ -4687,7 +7328,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -4697,9 +7338,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>38</v>
@@ -4715,7 +7356,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -4725,9 +7366,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>38</v>
@@ -4739,25 +7380,23 @@
         <v>11</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>121</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f t="shared" ref="I20" si="2">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>38</v>
@@ -4769,7 +7408,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
@@ -4783,9 +7422,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>38</v>
@@ -4801,7 +7440,7 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>57</v>
@@ -4811,9 +7450,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>38</v>
@@ -4827,21 +7466,23 @@
       <c r="E23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
+      <c r="F23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I23" si="1">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>38</v>
@@ -4853,13 +7494,11 @@
         <v>11</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>121</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>57</v>
@@ -4869,9 +7508,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>38</v>
@@ -4883,23 +7522,23 @@
         <v>11</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
+      <c r="G25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>38</v>
@@ -4915,16 +7554,19 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="25" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>38</v>
@@ -4939,20 +7581,20 @@
         <v>45</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
+      <c r="G27" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>38</v>
@@ -4964,23 +7606,23 @@
         <v>11</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
+      <c r="G28" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>38</v>
@@ -4992,16 +7634,44 @@
         <v>11</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5012,13 +7682,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
-    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H3:H19 H21 H25">
+    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="H3:H19 H21 H25">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5029,12 +7699,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5047,7 +7717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5063,12 +7733,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5080,25 +7767,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5114,12 +7784,51 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5131,12 +7840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5154,30 +7858,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H26"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="A28:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5192,12 +7896,12 @@
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>12</v>
+      <c r="G1" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -5217,7 +7921,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -5234,17 +7938,17 @@
         <v>40</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H26" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -5261,17 +7965,18 @@
         <v>39</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -5288,17 +7993,17 @@
         <v>41</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -5315,17 +8020,17 @@
         <v>42</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -5342,7 +8047,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5352,7 +8057,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -5369,7 +8074,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5379,7 +8084,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -5396,7 +8101,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5406,7 +8111,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -5433,7 +8138,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -5450,7 +8155,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5460,7 +8165,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -5487,7 +8192,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -5504,7 +8209,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5514,7 +8219,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -5541,7 +8246,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -5568,7 +8273,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -5595,7 +8300,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -5612,7 +8317,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5622,7 +8327,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -5649,7 +8354,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -5666,7 +8371,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5676,7 +8381,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -5703,7 +8408,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -5720,7 +8425,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5730,7 +8435,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -5747,7 +8452,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>57</v>
@@ -5757,7 +8462,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -5784,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -5800,18 +8505,18 @@
       <c r="E24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
+      <c r="F24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -5828,19 +8533,19 @@
         <v>45</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H25" s="3" t="str">
-        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>38</v>
@@ -5855,12 +8560,120 @@
         <v>45</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" ref="H27:H30" si="1">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5871,29 +8684,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G19 G24 G21">
-    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G19 G21">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G19 G24 G21">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G3:G19 G21">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5905,14 +8702,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24 G22">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
@@ -5928,6 +8737,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5940,7 +8754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5956,12 +8770,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26:G30">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G26:G30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5979,31 +8793,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J27"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6020,11 +8834,11 @@
         <v>3</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -6047,7 +8861,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1999</v>
       </c>
@@ -6065,7 +8879,7 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -6076,7 +8890,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2000</v>
       </c>
@@ -6094,10 +8908,10 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6105,7 +8919,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2001</v>
       </c>
@@ -6123,17 +8937,17 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
@@ -6151,7 +8965,7 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -6161,7 +8975,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2003</v>
       </c>
@@ -6189,7 +9003,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2004</v>
       </c>
@@ -6217,7 +9031,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2005</v>
       </c>
@@ -6235,7 +9049,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -6245,7 +9059,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2006</v>
       </c>
@@ -6273,7 +9087,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2007</v>
       </c>
@@ -6291,7 +9105,7 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -6301,7 +9115,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2008</v>
       </c>
@@ -6329,7 +9143,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2009</v>
       </c>
@@ -6347,7 +9161,7 @@
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -6357,7 +9171,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2010</v>
       </c>
@@ -6385,7 +9199,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2011</v>
       </c>
@@ -6413,7 +9227,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2012</v>
       </c>
@@ -6441,7 +9255,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2013</v>
       </c>
@@ -6459,7 +9273,7 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -6469,7 +9283,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2014</v>
       </c>
@@ -6487,7 +9301,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -6497,7 +9311,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2015</v>
       </c>
@@ -6515,7 +9329,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -6525,7 +9339,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2015</v>
       </c>
@@ -6553,7 +9367,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2016</v>
       </c>
@@ -6571,7 +9385,7 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -6581,7 +9395,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2017</v>
       </c>
@@ -6599,7 +9413,7 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>57</v>
@@ -6609,7 +9423,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2017</v>
       </c>
@@ -6623,23 +9437,21 @@
         <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>122</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" ref="I23" si="1">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2017</v>
       </c>
@@ -6655,19 +9467,18 @@
       <c r="E24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="G24" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>2018</v>
       </c>
@@ -6685,19 +9496,19 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="25" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I25" si="1">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>38</v>
@@ -6711,21 +9522,23 @@
       <c r="E26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="G26" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I26" si="2">IF(OR(AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>38</v>
@@ -6741,13 +9554,155 @@
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" ref="I28:I29" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" ref="I30" si="4">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" ref="I31" si="5">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" ref="I32" si="6">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -6757,12 +9712,81 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H19 H21 H25">
-    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H19 H21">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H19 H21 H25">
+  <conditionalFormatting sqref="H3:H19 H21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6774,29 +9798,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6808,12 +9815,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6825,12 +9832,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6842,12 +9849,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6859,1849 +9900,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H26" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G19 G21">
-    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G19 G21">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I27" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" ref="I25" si="1">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="3" t="str">
-        <f t="shared" ref="I26" si="2">IF(OR(AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" ref="I28:I29" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H19 H21">
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H19 H21">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8730,14 +9934,14 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -8748,7 +9952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -8759,7 +9963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -8770,7 +9974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -8781,7 +9985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -8792,7 +9996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -8803,7 +10007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BCE5C6-654F-4926-BF7C-6E8850B7A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DDFB7-B9AE-4815-A5FF-C59CF2E8FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="2150" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -823,6 +820,9 @@
   </si>
   <si>
     <t>33.500</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1134,14 +1134,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="77">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1735,119 +1736,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1879,9 +1767,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="89" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2152,11 +2040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2175,17 +2063,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2193,16 +2081,16 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2211,16 +2099,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2235,16 +2123,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2259,16 +2147,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2283,16 +2171,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2308,16 +2196,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2333,16 +2221,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2357,16 +2245,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2381,16 +2269,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2405,16 +2293,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2429,16 +2317,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2453,16 +2341,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2477,16 +2365,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2501,16 +2389,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2525,16 +2413,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2549,16 +2437,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2573,16 +2461,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2597,16 +2485,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2621,19 +2509,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ref="G20" si="2">IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
@@ -2645,16 +2533,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2669,19 +2557,19 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2693,19 +2581,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ref="G23" si="3">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
@@ -2717,19 +2605,19 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2741,19 +2629,19 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2765,19 +2653,19 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2789,19 +2677,19 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2813,19 +2701,19 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2837,19 +2725,19 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2864,7 +2752,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F19 F21">
-    <cfRule type="containsText" dxfId="87" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2881,11 +2769,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F24">
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
+  <conditionalFormatting sqref="F22 F24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2898,7 +2786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="85" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2915,7 +2803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2932,7 +2820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2949,7 +2837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2966,7 +2854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2983,7 +2871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3000,7 +2888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3030,7 +2918,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:G29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3049,17 +2937,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3067,16 +2955,16 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3085,16 +2973,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3110,16 +2998,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3135,16 +3023,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3159,16 +3047,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3183,16 +3071,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3207,16 +3095,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3231,16 +3119,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3255,16 +3143,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3279,16 +3167,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3303,16 +3191,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3327,16 +3215,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3351,16 +3239,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3375,16 +3263,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3399,16 +3287,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3423,16 +3311,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3447,16 +3335,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3471,16 +3359,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3495,19 +3383,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3519,16 +3407,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3543,19 +3431,19 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3567,19 +3455,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3591,19 +3479,19 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3615,19 +3503,19 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3639,19 +3527,19 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3663,19 +3551,19 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3687,19 +3575,19 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3711,19 +3599,19 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3737,7 +3625,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F19 F21">
-    <cfRule type="containsText" dxfId="81" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3754,11 +3642,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F24">
-    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
+  <conditionalFormatting sqref="F22 F24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3771,7 +3659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3788,7 +3676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3805,7 +3693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3822,7 +3710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3839,7 +3727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3856,7 +3744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3873,7 +3761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3903,7 +3791,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A27:G29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3922,17 +3810,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3940,16 +3828,16 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3958,16 +3846,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3983,16 +3871,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4008,16 +3896,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4032,16 +3920,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4056,16 +3944,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4080,16 +3968,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4104,16 +3992,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4128,16 +4016,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4152,16 +4040,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4176,16 +4064,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4200,16 +4088,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -4224,16 +4112,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -4248,16 +4136,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4272,16 +4160,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4296,16 +4184,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4320,16 +4208,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4344,16 +4232,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4368,19 +4256,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4392,16 +4280,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4416,16 +4304,16 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4440,19 +4328,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4464,16 +4352,16 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4488,16 +4376,16 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -4512,16 +4400,16 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -4536,19 +4424,19 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4560,16 +4448,16 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -4584,16 +4472,16 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -4610,7 +4498,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F19 F21:F22 F24">
-    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4627,7 +4515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4644,7 +4532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4661,7 +4549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4678,7 +4566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4695,7 +4583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4712,7 +4600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4729,7 +4617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4759,7 +4647,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G30:G32"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4780,19 +4668,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
       <c r="F1" s="29"/>
       <c r="G1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -4800,22 +4688,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4824,20 +4712,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -4852,20 +4740,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -4880,20 +4768,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -4908,20 +4796,20 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -4937,20 +4825,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -4966,20 +4854,20 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -4994,20 +4882,20 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -5022,20 +4910,20 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -5050,20 +4938,20 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -5078,20 +4966,20 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -5106,20 +4994,20 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -5134,20 +5022,20 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -5162,20 +5050,20 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -5190,20 +5078,20 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -5218,25 +5106,25 @@
         <v>2012</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ref="I17" si="1">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
@@ -5248,20 +5136,20 @@
         <v>2013</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -5276,20 +5164,20 @@
         <v>2014</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -5304,22 +5192,22 @@
         <v>2014</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -5334,20 +5222,20 @@
         <v>2015</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -5362,23 +5250,23 @@
         <v>2015</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5390,20 +5278,20 @@
         <v>2016</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -5418,25 +5306,25 @@
         <v>2016</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5448,20 +5336,20 @@
         <v>2017</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -5476,23 +5364,23 @@
         <v>2017</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -5501,20 +5389,20 @@
         <v>2018</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -5529,20 +5417,20 @@
         <v>2019</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -5557,23 +5445,23 @@
         <v>2020</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5585,23 +5473,23 @@
         <v>2021</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" ref="I30:I32" si="3">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
@@ -5613,20 +5501,20 @@
         <v>2022</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -5641,20 +5529,20 @@
         <v>2023</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -5671,7 +5559,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
-    <cfRule type="containsText" dxfId="70" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5688,7 +5576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5705,7 +5593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5722,7 +5610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5739,7 +5627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5756,7 +5644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5773,7 +5661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="64" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5790,7 +5678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="63" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5807,12 +5695,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5829,7 +5717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5871,7 +5759,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="A27:H29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5891,18 +5779,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -5910,19 +5798,19 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5931,19 +5819,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5958,19 +5846,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -5985,19 +5873,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -6012,19 +5900,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -6039,19 +5927,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -6066,19 +5954,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -6093,19 +5981,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -6120,19 +6008,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -6147,19 +6035,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -6174,19 +6062,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -6201,19 +6089,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -6228,19 +6116,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -6255,19 +6143,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -6282,19 +6170,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6309,19 +6197,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6336,19 +6224,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6363,19 +6251,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6390,22 +6278,22 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6417,19 +6305,19 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6444,22 +6332,22 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6471,22 +6359,22 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6498,19 +6386,19 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -6525,22 +6413,22 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H29" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -6552,22 +6440,22 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6579,22 +6467,22 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6606,19 +6494,19 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -6633,19 +6521,19 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -6662,7 +6550,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G19 G24 G21">
-    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6679,7 +6567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6696,12 +6584,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6730,7 +6618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6747,7 +6635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6764,7 +6652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6781,7 +6669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6798,7 +6686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6828,7 +6716,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28:G30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6849,19 +6737,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
       <c r="F1" s="29"/>
       <c r="G1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -6869,22 +6757,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6893,20 +6781,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -6922,20 +6810,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -6951,20 +6839,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -6979,20 +6867,20 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -7007,20 +6895,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -7035,20 +6923,20 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -7063,20 +6951,20 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -7091,20 +6979,20 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -7119,20 +7007,20 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -7147,20 +7035,20 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -7175,20 +7063,20 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -7203,20 +7091,20 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -7231,20 +7119,20 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -7259,20 +7147,20 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -7287,20 +7175,20 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -7315,20 +7203,20 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -7343,20 +7231,20 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -7371,23 +7259,23 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7399,20 +7287,20 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -7427,23 +7315,23 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7455,25 +7343,25 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>123</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" ref="I23" si="1">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
@@ -7485,23 +7373,23 @@
         <v>2017</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7513,23 +7401,23 @@
         <v>2018</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7541,23 +7429,23 @@
         <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7569,23 +7457,23 @@
         <v>2020</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7597,23 +7485,23 @@
         <v>2021</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7625,23 +7513,23 @@
         <v>2022</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7653,23 +7541,23 @@
         <v>2023</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7683,7 +7571,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H19 H21 H25">
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7700,7 +7588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7717,7 +7605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7734,7 +7622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7751,7 +7639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7768,7 +7656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7785,7 +7673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7802,12 +7690,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7824,7 +7712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7866,7 +7754,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="A28:H30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7886,18 +7774,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -7905,19 +7793,19 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -7926,19 +7814,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7953,19 +7841,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -7981,19 +7869,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -8008,19 +7896,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -8035,19 +7923,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -8062,19 +7950,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -8089,19 +7977,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -8116,19 +8004,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -8143,19 +8031,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -8170,19 +8058,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -8197,19 +8085,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -8224,19 +8112,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -8251,19 +8139,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -8278,19 +8166,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -8305,19 +8193,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -8332,19 +8220,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -8359,19 +8247,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -8386,22 +8274,22 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8413,19 +8301,19 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -8440,22 +8328,22 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8467,22 +8355,22 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8494,22 +8382,22 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8521,22 +8409,22 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8548,22 +8436,22 @@
         <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8575,22 +8463,22 @@
         <v>2020</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" ref="H27:H30" si="1">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
@@ -8602,22 +8490,22 @@
         <v>2021</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8629,22 +8517,22 @@
         <v>2022</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8656,22 +8544,22 @@
         <v>2023</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8686,7 +8574,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3:G19 G21">
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8703,11 +8591,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8720,7 +8608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8737,7 +8625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8754,7 +8642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8771,7 +8659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G30">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8797,11 +8685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:I32"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8822,19 +8710,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
       <c r="F1" s="29"/>
       <c r="G1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -8842,22 +8730,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -8866,20 +8754,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -8895,20 +8783,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -8924,20 +8812,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -8952,20 +8840,20 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -8980,20 +8868,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -9008,20 +8896,20 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -9036,20 +8924,20 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -9064,20 +8952,20 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -9092,20 +8980,20 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -9120,20 +9008,20 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -9148,20 +9036,20 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -9176,20 +9064,20 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -9204,20 +9092,20 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -9232,20 +9120,20 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -9260,20 +9148,20 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -9288,20 +9176,20 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -9316,20 +9204,20 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -9344,23 +9232,23 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9372,20 +9260,20 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -9400,23 +9288,23 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9428,23 +9316,23 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9456,25 +9344,25 @@
         <v>2017</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -9483,23 +9371,23 @@
         <v>2018</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" ref="I25" si="1">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
@@ -9511,25 +9399,25 @@
         <v>2018</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>126</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" ref="I26" si="2">IF(OR(AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
@@ -9541,23 +9429,23 @@
         <v>2019</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9569,25 +9457,25 @@
         <v>2019</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" ref="I28:I29" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
@@ -9599,23 +9487,23 @@
         <v>2020</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9627,23 +9515,23 @@
         <v>2021</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" ref="I30" si="4">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
@@ -9655,23 +9543,23 @@
         <v>2022</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" ref="I31" si="5">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
@@ -9683,23 +9571,23 @@
         <v>2023</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" ref="I32" si="6">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
@@ -9714,7 +9602,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H3:H19 H21">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9731,7 +9619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9748,7 +9636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9765,7 +9653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9782,7 +9670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9799,7 +9687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9816,7 +9704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9833,7 +9721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9850,7 +9738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9867,7 +9755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H30">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9884,7 +9772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9901,7 +9789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9943,13 +9831,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9957,10 +9845,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9968,10 +9856,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9979,10 +9867,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9990,10 +9878,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10001,10 +9889,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10012,10 +9900,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DDFB7-B9AE-4815-A5FF-C59CF2E8FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF542C3-DAA3-4058-88E4-024EC81EE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4070" yWindow="2150" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2773,7 +2773,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
+  <conditionalFormatting sqref="F24 F22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3646,7 +3646,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
+  <conditionalFormatting sqref="F24 F22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7754,7 +7754,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7884,7 +7884,7 @@
         <v>101</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8595,7 +8595,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8689,7 +8689,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF542C3-DAA3-4058-88E4-024EC81EE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010D6FC-6351-41D3-A283-CC0FE5304026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2773,7 +2773,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
+  <conditionalFormatting sqref="F22 F24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3646,7 +3646,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
+  <conditionalFormatting sqref="F22 F24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3787,11 +3787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3858,7 +3858,7 @@
         <v>63</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -8595,7 +8595,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8685,7 +8685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010D6FC-6351-41D3-A283-CC0FE5304026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E8451-F310-4FA2-915F-6601FA45785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2773,7 +2773,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
+  <conditionalFormatting sqref="F24 F22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3646,7 +3646,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24">
+  <conditionalFormatting sqref="F24 F22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3787,11 +3787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="G8:H8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4643,11 +4643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4756,7 +4756,7 @@
         <v>81</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8595,7 +8595,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E8451-F310-4FA2-915F-6601FA45785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2434308-FE14-4C95-B48D-8F4E93851183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="149">
   <si>
     <t>Year</t>
   </si>
@@ -387,12 +397,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -516,9 +520,6 @@
     <t>Obv: Mint director Symbol -  St. Servatius Bridge</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>47.800.000</t>
   </si>
   <si>
@@ -705,9 +706,6 @@
     <t>325.000</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>15.000</t>
   </si>
   <si>
@@ -823,13 +821,28 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_4#Coloured</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -895,6 +908,16 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1043,7 +1066,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,6 +1136,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,6 +1154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2038,59 +2065,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2099,16 +2125,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2123,16 +2149,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2147,16 +2173,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2171,16 +2197,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2196,16 +2222,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2221,16 +2247,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2245,16 +2271,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2269,16 +2295,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2293,16 +2319,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2317,16 +2343,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2341,16 +2367,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2365,16 +2391,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2389,16 +2415,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2413,16 +2439,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2437,16 +2463,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2461,16 +2487,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2485,16 +2511,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2509,19 +2535,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ref="G20" si="2">IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
@@ -2533,16 +2559,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2557,19 +2583,19 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2581,19 +2607,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ref="G23" si="3">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
@@ -2605,19 +2631,19 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2629,19 +2655,19 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2653,19 +2679,19 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2677,19 +2703,19 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2701,19 +2727,19 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2725,29 +2751,47 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2773,7 +2817,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
+  <conditionalFormatting sqref="F22 F24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2912,59 +2956,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2973,16 +3016,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2998,16 +3041,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3023,16 +3066,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3047,16 +3090,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3071,16 +3114,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3095,16 +3138,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3119,16 +3162,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3143,16 +3186,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3167,16 +3210,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3191,16 +3234,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3215,16 +3258,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3239,16 +3282,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3263,16 +3306,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3287,16 +3330,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3311,16 +3354,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3335,16 +3378,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3359,16 +3402,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3383,19 +3426,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3407,16 +3450,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3431,19 +3474,19 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3455,19 +3498,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3479,19 +3522,19 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3503,19 +3546,19 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3527,19 +3570,19 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3551,19 +3594,19 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3575,19 +3618,19 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3599,29 +3642,32 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F19 F21">
@@ -3646,7 +3692,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22">
+  <conditionalFormatting sqref="F22 F24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3791,53 +3837,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3846,16 +3891,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3871,16 +3916,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3896,16 +3941,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3920,16 +3965,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3944,16 +3989,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3968,16 +4013,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3992,16 +4037,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4016,16 +4061,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4040,16 +4085,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4064,16 +4109,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4088,16 +4133,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -4112,16 +4157,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -4136,16 +4181,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4160,16 +4205,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4184,16 +4229,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4208,16 +4253,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4232,16 +4277,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4256,19 +4301,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4280,16 +4325,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4304,16 +4349,16 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4328,19 +4373,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4352,16 +4397,16 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4376,16 +4421,16 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -4400,16 +4445,16 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -4424,19 +4469,19 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4448,16 +4493,16 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -4472,16 +4517,16 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -4492,9 +4537,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F19 F21:F22 F24">
@@ -4643,67 +4688,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4712,20 +4754,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -4740,20 +4782,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -4768,20 +4810,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -4796,20 +4838,20 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -4825,20 +4867,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -4854,20 +4896,20 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -4882,20 +4924,20 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -4910,20 +4952,20 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -4938,20 +4980,20 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -4966,20 +5008,20 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -4994,20 +5036,20 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -5022,20 +5064,20 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -5050,20 +5092,20 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -5078,20 +5120,20 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -5106,25 +5148,25 @@
         <v>2012</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ref="I17" si="1">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
@@ -5136,20 +5178,20 @@
         <v>2013</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -5164,20 +5206,20 @@
         <v>2014</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -5192,22 +5234,22 @@
         <v>2014</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -5222,20 +5264,20 @@
         <v>2015</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -5250,23 +5292,23 @@
         <v>2015</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5278,20 +5320,20 @@
         <v>2016</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -5306,25 +5348,25 @@
         <v>2016</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5336,20 +5378,20 @@
         <v>2017</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -5364,23 +5406,23 @@
         <v>2017</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -5389,20 +5431,20 @@
         <v>2018</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -5417,20 +5459,20 @@
         <v>2019</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -5445,23 +5487,23 @@
         <v>2020</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5473,23 +5515,23 @@
         <v>2021</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" ref="I30:I32" si="3">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
@@ -5501,20 +5543,20 @@
         <v>2022</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -5529,20 +5571,20 @@
         <v>2023</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -5553,9 +5595,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H16 H18:H19 H21 H23 H25 H27">
@@ -5759,58 +5801,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5819,19 +5859,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5846,19 +5886,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -5873,19 +5913,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5900,19 +5940,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -5927,19 +5967,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5954,19 +5994,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5981,19 +6021,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -6008,19 +6048,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -6035,19 +6075,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -6062,19 +6102,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -6089,19 +6129,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -6116,19 +6156,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -6143,19 +6183,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -6170,19 +6210,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6197,19 +6237,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6224,19 +6264,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6251,19 +6291,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6278,22 +6318,22 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6305,19 +6345,19 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6332,22 +6372,22 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6359,22 +6399,22 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6386,19 +6426,19 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -6413,22 +6453,22 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H29" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -6440,22 +6480,22 @@
         <v>2020</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6467,22 +6507,22 @@
         <v>2021</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6494,19 +6534,19 @@
         <v>2022</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -6521,19 +6561,19 @@
         <v>2023</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -6544,9 +6584,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G19 G24 G21">
@@ -6716,63 +6756,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6781,20 +6818,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -6810,20 +6847,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -6839,20 +6876,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -6867,20 +6904,20 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -6895,20 +6932,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -6923,20 +6960,20 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -6951,20 +6988,20 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -6979,20 +7016,20 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -7007,20 +7044,20 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -7035,20 +7072,20 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -7063,20 +7100,20 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -7091,20 +7128,20 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -7119,20 +7156,20 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -7147,20 +7184,20 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -7175,20 +7212,20 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -7203,20 +7240,20 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -7231,20 +7268,20 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -7259,23 +7296,23 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7287,20 +7324,20 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -7315,23 +7352,23 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7343,25 +7380,25 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" ref="I23" si="1">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
@@ -7373,23 +7410,23 @@
         <v>2017</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7401,23 +7438,23 @@
         <v>2018</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7429,23 +7466,23 @@
         <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7457,23 +7494,23 @@
         <v>2020</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7485,23 +7522,23 @@
         <v>2021</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7513,23 +7550,23 @@
         <v>2022</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7541,23 +7578,23 @@
         <v>2023</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7565,9 +7602,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H19 H21 H25">
@@ -7754,58 +7791,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -7814,19 +7849,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7841,19 +7876,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -7869,19 +7904,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -7896,19 +7931,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -7923,19 +7958,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -7950,19 +7985,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -7977,19 +8012,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -8004,19 +8039,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -8031,19 +8066,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -8058,19 +8093,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -8085,19 +8120,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -8112,19 +8147,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -8139,19 +8174,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -8166,19 +8201,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -8193,19 +8228,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -8220,19 +8255,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -8247,19 +8282,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -8274,22 +8309,22 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8301,19 +8336,19 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -8328,22 +8363,22 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8355,22 +8390,22 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8382,22 +8417,22 @@
         <v>2018</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8409,22 +8444,22 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8436,22 +8471,22 @@
         <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8463,22 +8498,22 @@
         <v>2020</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" ref="H27:H30" si="1">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
@@ -8490,22 +8525,22 @@
         <v>2021</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8517,22 +8552,22 @@
         <v>2022</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8544,22 +8579,22 @@
         <v>2023</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8567,9 +8602,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -8595,7 +8630,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8689,63 +8724,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -8754,20 +8786,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -8783,20 +8815,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -8812,20 +8844,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -8840,20 +8872,20 @@
         <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -8868,20 +8900,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -8896,20 +8928,20 @@
         <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -8924,20 +8956,20 @@
         <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -8952,20 +8984,20 @@
         <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -8980,20 +9012,20 @@
         <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -9008,20 +9040,20 @@
         <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -9036,20 +9068,20 @@
         <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -9064,20 +9096,20 @@
         <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -9092,20 +9124,20 @@
         <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -9120,20 +9152,20 @@
         <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -9148,20 +9180,20 @@
         <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -9176,20 +9208,20 @@
         <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -9204,20 +9236,20 @@
         <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -9232,23 +9264,23 @@
         <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9260,20 +9292,20 @@
         <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -9288,23 +9320,23 @@
         <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9316,23 +9348,23 @@
         <v>2017</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9344,25 +9376,25 @@
         <v>2017</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -9371,23 +9403,23 @@
         <v>2018</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" ref="I25" si="1">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
@@ -9399,25 +9431,25 @@
         <v>2018</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" ref="I26" si="2">IF(OR(AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
@@ -9429,23 +9461,23 @@
         <v>2019</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9457,25 +9489,25 @@
         <v>2019</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" ref="I28:I29" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
@@ -9487,23 +9519,23 @@
         <v>2020</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9515,23 +9547,23 @@
         <v>2021</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" ref="I30" si="4">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
@@ -9543,23 +9575,23 @@
         <v>2022</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" ref="I31" si="5">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
@@ -9571,23 +9603,23 @@
         <v>2023</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" ref="I32" si="6">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
@@ -9595,9 +9627,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9831,13 +9863,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9845,10 +9877,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9856,10 +9888,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9867,10 +9899,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9878,10 +9910,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9889,10 +9921,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9900,10 +9932,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
